--- a/ETI/model/data_ETI.xlsx
+++ b/ETI/model/data_ETI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ammarbahman/Desktop/Trunk/ETI/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442C8236-766C-424C-911E-9D97620F7567}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73C814E-5DBB-1C43-A350-A9CF6BC53511}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="460" windowWidth="31060" windowHeight="20860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19160" yWindow="9220" windowWidth="31060" windowHeight="20860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANN_data" sheetId="4" r:id="rId1"/>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A7935A-81F5-8C48-8710-883875223A06}">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="O70" sqref="O70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3612,6 +3612,130 @@
         <v>6.6910000000000007</v>
       </c>
     </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f>MIN(A2:A68)</f>
+        <v>297</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ref="B69:O69" si="0">MIN(B2:B68)</f>
+        <v>274.10000000000002</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="0"/>
+        <v>327</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="0"/>
+        <v>342.5</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="0"/>
+        <v>1434</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="0"/>
+        <v>279.8</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="0"/>
+        <v>552.9</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="0"/>
+        <v>0.77869999999999995</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="0"/>
+        <v>378.6</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="0"/>
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="0"/>
+        <v>4.96E-3</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="0"/>
+        <v>5.5070000000000001E-2</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="0"/>
+        <v>-4.5260000000000002E-2</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="0"/>
+        <v>3.1539999999999999</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="0"/>
+        <v>-0.8931</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f>MAX(A2:A68)</f>
+        <v>324.8</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ref="B70:O70" si="1">MAX(B2:B68)</f>
+        <v>294.52999999999997</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>749.6</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>380.5</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>3186</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>322.5</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>1588</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="1"/>
+        <v>448.7</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="1"/>
+        <v>0.1045</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="1"/>
+        <v>4.3020000000000003E-2</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="1"/>
+        <v>0.14701999999999998</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="1"/>
+        <v>0.37327919999999998</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="1"/>
+        <v>7.806</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="1"/>
+        <v>6.6910000000000007</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
